--- a/Info/EMPLOYEES.xlsx
+++ b/Info/EMPLOYEES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Kristal\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A30829F-2966-4EA0-AB80-D5CA8843A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2822921-DDFB-4617-8482-B699AC5A809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Table field list</t>
   </si>
@@ -103,6 +103,60 @@
   </si>
   <si>
     <t>Bank account</t>
+  </si>
+  <si>
+    <t>eName</t>
+  </si>
+  <si>
+    <t>eSurname</t>
+  </si>
+  <si>
+    <t>ePhone</t>
+  </si>
+  <si>
+    <t>eNum</t>
+  </si>
+  <si>
+    <t>ePosition</t>
+  </si>
+  <si>
+    <t>eDepartment</t>
+  </si>
+  <si>
+    <t>eSalary</t>
+  </si>
+  <si>
+    <t>eSpecial</t>
+  </si>
+  <si>
+    <t>ePersCode</t>
+  </si>
+  <si>
+    <t>eBirthDay</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>eHiringDate</t>
+  </si>
+  <si>
+    <t>eContractNum</t>
+  </si>
+  <si>
+    <t>eLabourRate</t>
+  </si>
+  <si>
+    <t>eAddressDeclared</t>
+  </si>
+  <si>
+    <t>eAddressActual</t>
+  </si>
+  <si>
+    <t>ePhoneEmergency</t>
+  </si>
+  <si>
+    <t>eBankAccount</t>
   </si>
 </sst>
 </file>
@@ -436,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,139 +501,195 @@
     <col min="1" max="1" width="58.140625" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
